--- a/onion_routing_costs.xlsx
+++ b/onion_routing_costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karannewatia/Desktop/Mycelium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDFC261-DC53-6B47-8FDF-79923E47882D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC640907-0D53-C946-AB3A-8B86CE7AEB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>2 hop</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Time (s)</t>
   </si>
   <si>
-    <t>send 1MB</t>
-  </si>
-  <si>
     <t>Node4</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>Telescoping - read</t>
   </si>
   <si>
-    <t>Send 1 MB - write</t>
-  </si>
-  <si>
-    <t>Send 1 MB - read</t>
-  </si>
-  <si>
     <t>send 4.3 MB</t>
   </si>
   <si>
@@ -89,6 +80,9 @@
   </si>
   <si>
     <t> 0.019684814999999994</t>
+  </si>
+  <si>
+    <t>Send 4.3MB - write</t>
   </si>
 </sst>
 </file>
@@ -376,8 +370,8 @@
   </sheetPr>
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H26" sqref="A25:H26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -416,7 +410,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>7.4300000000000005E-2</v>
@@ -433,7 +427,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>0.14211699999999999</v>
@@ -464,7 +458,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -488,7 +482,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
         <v>2176</v>
@@ -505,7 +499,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
         <v>4386</v>
@@ -522,7 +516,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6">
         <v>4509109</v>
@@ -539,7 +533,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>0</v>
@@ -597,7 +591,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="6">
         <v>0.10283399999999999</v>
@@ -609,7 +603,7 @@
         <v>2.0948497E-2</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" s="6">
         <v>1.97593E-2</v>
@@ -617,7 +611,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" s="6">
         <v>0.143451</v>
@@ -645,7 +639,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -667,7 +661,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1">
         <v>3195</v>
@@ -687,7 +681,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1">
         <v>6641</v>
@@ -707,7 +701,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29" s="6">
         <v>4509185</v>
@@ -727,7 +721,7 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -764,7 +758,7 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -773,7 +767,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -786,61 +780,63 @@
         <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.127917</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.9280257999999901E-2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2.0574946E-2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2.0782999999999999E-2</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.9399375999999999E-2</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1.7891000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1">
-        <v>4.7799000000000001E-2</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1.55274E-2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.5781099999999999E-2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1.5704099999999999E-2</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1.47972E-2</v>
-      </c>
-      <c r="G39" s="1">
-        <v>9.8160799999999996E-3</v>
+        <v>12</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.130685</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2.09476449999999E-2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2.1025801E-2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1.9912122000000001E-2</v>
+      </c>
+      <c r="F38" s="6">
+        <v>2.0789681000000001E-2</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1.9436499999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="6">
+        <v>0.22045100000000001</v>
+      </c>
+      <c r="C39" s="6">
+        <v>5.9693200000000002E-2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>4.3498000000000002E-2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>4.1503499999999999E-2</v>
+      </c>
+      <c r="F39" s="6">
+        <v>6.8581000000000003E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2.4164700000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -857,102 +853,102 @@
         <v>6</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1">
-        <v>4824</v>
+        <v>4344</v>
       </c>
       <c r="C44" s="1">
-        <v>7737</v>
-      </c>
-      <c r="D44" s="1">
-        <v>5431</v>
-      </c>
-      <c r="E44" s="1">
-        <v>3381</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1587</v>
+        <v>12244</v>
+      </c>
+      <c r="D44" s="6">
+        <v>8821</v>
+      </c>
+      <c r="E44" s="6">
+        <v>5691</v>
+      </c>
+      <c r="F44" s="6">
+        <v>2837</v>
       </c>
       <c r="G44" s="1">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="1">
-        <v>4235</v>
+        <v>9029</v>
       </c>
       <c r="C45" s="1">
-        <v>7947</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5641</v>
-      </c>
-      <c r="E45" s="1">
-        <v>3591</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1799</v>
+        <v>10989</v>
+      </c>
+      <c r="D45" s="6">
+        <v>7590</v>
+      </c>
+      <c r="E45" s="6">
+        <v>4463</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1608</v>
       </c>
       <c r="G45" s="1">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1048902</v>
+        <v>20</v>
+      </c>
+      <c r="B46" s="6">
+        <v>4509260</v>
       </c>
       <c r="C46" s="1">
-        <v>1048838</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1048774</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1048710</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1048646</v>
+        <v>4509185</v>
+      </c>
+      <c r="D46" s="6">
+        <v>4509110</v>
+      </c>
+      <c r="E46" s="6">
+        <v>4509034</v>
+      </c>
+      <c r="F46" s="6">
+        <v>4508958</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
       </c>
-      <c r="C47" s="1">
-        <v>1048902</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1048838</v>
-      </c>
-      <c r="E47" s="1">
-        <v>1048774</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1048710</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1048646</v>
+      <c r="C47" s="6">
+        <v>4509256</v>
+      </c>
+      <c r="D47" s="6">
+        <v>4509181</v>
+      </c>
+      <c r="E47" s="6">
+        <v>4509106</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4509030</v>
+      </c>
+      <c r="G47" s="6">
+        <v>4508954</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15"/>
